--- a/biology/Zoologie/Eurema_dina/Eurema_dina.xlsx
+++ b/biology/Zoologie/Eurema_dina/Eurema_dina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema dina est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,84 +523,90 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema dina a été nommé par Felipe Poey en 1832.
-Synonyme : Terias dina, Poey,1832; Pyrisitia dina (Poey, 1832)[1],[2].
-Noms vernaculaires
-Eurema diana se nomme Dina Yellow en anglais[3].
-Sous-espèces
-Eurema dina dina ; présent à Cuba.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema dina a été nommé par Felipe Poey en 1832.
+Synonyme : Terias dina, Poey,1832; Pyrisitia dina (Poey, 1832),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eurema_dina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema diana se nomme Dina Yellow en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurema_dina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eurema dina dina ; présent à Cuba.
 Eurema dina bayobanex Bates, 1939; à Haïti
 Eurema dina helios Bates, 1934; présent aux Bahamas.
 Eurema dina parvumbra (Kaye, 1925)à la Jamaïque.
-Eurema dina westwoodi (Boisduval, 1836); au Mexique, Costa Rica, à Panama et au Honduras[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eurema_dina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema dina est un papillon jaune de taille moyenne (son envergure varie de 32 à 57 mm) aux ailes antérieures finement bordées de marron. Le mâle est d'un jaune orange plus soutenu que la femelle jaune et chez les deux sexes la forme de la saison humide est d'une couleur plus claire[3].
-Le revers est dans les deux sexes de couleur jaune orné aux postérieures de marques marron.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eurema_dina</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema dina vole toute l'année en plusieurs générations en Floride.
-C'est un migrateur qui visite régulièrement le Texas et l'Arizona[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Picramnia  alleni, Picramnia quaternaria et Alvaradoa amorphoides[1],[3].
-</t>
+Eurema dina westwoodi (Boisduval, 1836); au Mexique, Costa Rica, à Panama et au Honduras.</t>
         </is>
       </c>
     </row>
@@ -613,17 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema dina  est résident dans le sud de l'Amérique du Nord (sur de la Floride, Mexique, Costa Rica, Panama et Honduras) et aux Antilles (Cuba, Bahamas, Jamaïque)[1]
-Il est migrateur au Texas et en Arizona.
-Biotope
-Il réside dans les forêts claires.
-Protection
-Pas de statut de protection particulier[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema dina est un papillon jaune de taille moyenne (son envergure varie de 32 à 57 mm) aux ailes antérieures finement bordées de marron. Le mâle est d'un jaune orange plus soutenu que la femelle jaune et chez les deux sexes la forme de la saison humide est d'une couleur plus claire.
+Le revers est dans les deux sexes de couleur jaune orné aux postérieures de marques marron.
 </t>
         </is>
       </c>
@@ -649,14 +665,195 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema dina vole toute l'année en plusieurs générations en Floride.
+C'est un migrateur qui visite régulièrement le Texas et l'Arizona.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_dina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Picramnia  alleni, Picramnia quaternaria et Alvaradoa amorphoides,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_dina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema dina  est résident dans le sud de l'Amérique du Nord (sur de la Floride, Mexique, Costa Rica, Panama et Honduras) et aux Antilles (Cuba, Bahamas, Jamaïque)
+Il est migrateur au Texas et en Arizona.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_dina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts claires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eurema_dina</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eurema_dina</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_dina</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur plusieurs timbres-poste :
 Émission de Cuba de 1974 (valeur faciale : 4 c.).
-Émission de Cuba de 1997 (valeur faciale : 15 c.)[4].
+Émission de Cuba de 1997 (valeur faciale : 15 c.).
 Sur les autres projets Wikimedia :
 Eurema dina, sur Wikimedia CommonsEurema dina, sur Wikispecies
 </t>
